--- a/userguide/df.xlsx
+++ b/userguide/df.xlsx
@@ -391,172 +391,172 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>979</v>
+        <v>370</v>
       </c>
       <c r="B2">
-        <v>863</v>
+        <v>578</v>
       </c>
       <c r="C2">
-        <v>724</v>
+        <v>253</v>
       </c>
       <c r="D2">
-        <v>689</v>
+        <v>117</v>
       </c>
       <c r="E2">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>907</v>
+        <v>150</v>
       </c>
       <c r="B3">
-        <v>560</v>
+        <v>889</v>
       </c>
       <c r="C3">
-        <v>906</v>
+        <v>592</v>
       </c>
       <c r="D3">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E3">
-        <v>580</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>907</v>
+        <v>399</v>
       </c>
       <c r="B4">
-        <v>263</v>
+        <v>826</v>
       </c>
       <c r="C4">
-        <v>794</v>
+        <v>826</v>
       </c>
       <c r="D4">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="E4">
-        <v>190</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>438</v>
+        <v>293</v>
       </c>
       <c r="B5">
-        <v>833</v>
+        <v>586</v>
       </c>
       <c r="C5">
-        <v>412</v>
+        <v>721</v>
       </c>
       <c r="D5">
-        <v>227</v>
+        <v>786</v>
       </c>
       <c r="E5">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>320</v>
+        <v>742</v>
       </c>
       <c r="B6">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="C6">
-        <v>947</v>
+        <v>899</v>
       </c>
       <c r="D6">
-        <v>251</v>
+        <v>927</v>
       </c>
       <c r="E6">
-        <v>475</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>846</v>
+        <v>146</v>
       </c>
       <c r="B7">
-        <v>290</v>
+        <v>960</v>
       </c>
       <c r="C7">
-        <v>955</v>
+        <v>446</v>
       </c>
       <c r="D7">
-        <v>164</v>
+        <v>783</v>
       </c>
       <c r="E7">
-        <v>739</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>806</v>
+        <v>545</v>
       </c>
       <c r="B8">
-        <v>797</v>
+        <v>588</v>
       </c>
       <c r="C8">
-        <v>570</v>
+        <v>433</v>
       </c>
       <c r="D8">
-        <v>649</v>
+        <v>188</v>
       </c>
       <c r="E8">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>131</v>
+        <v>662</v>
       </c>
       <c r="B9">
-        <v>596</v>
+        <v>316</v>
       </c>
       <c r="C9">
-        <v>716</v>
+        <v>448</v>
       </c>
       <c r="D9">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="E9">
-        <v>565</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>217</v>
+        <v>479</v>
       </c>
       <c r="B10">
-        <v>253</v>
+        <v>603</v>
       </c>
       <c r="C10">
-        <v>724</v>
+        <v>224</v>
       </c>
       <c r="D10">
-        <v>374</v>
+        <v>644</v>
       </c>
       <c r="E10">
-        <v>655</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="B11">
-        <v>953</v>
+        <v>703</v>
       </c>
       <c r="C11">
-        <v>430</v>
+        <v>929</v>
       </c>
       <c r="D11">
-        <v>750</v>
+        <v>836</v>
       </c>
       <c r="E11">
-        <v>203</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
